--- a/Testkit/Q2/Header.xlsx
+++ b/Testkit/Q2/Header.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE27EDAB-5A94-4385-A9A0-EA25BD32041F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F7CAF6-26FB-44EF-BBD2-FCBDEBAA79E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>Data Type</t>
   </si>
@@ -115,6 +115,36 @@
   </si>
   <si>
     <t>TCP</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>bieu thuc</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>2 lỗi</t>
+  </si>
+  <si>
+    <t>chia 0</t>
+  </si>
+  <si>
+    <t>nhân</t>
+  </si>
+  <si>
+    <t>chia format</t>
+  </si>
+  <si>
+    <t>cộng</t>
+  </si>
+  <si>
+    <t>trừ</t>
+  </si>
+  <si>
+    <t>chia</t>
   </si>
 </sst>
 </file>
@@ -521,10 +551,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +562,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -540,100 +570,142 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13">
         <v>0.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
